--- a/docs/平台页面站点表.xlsx
+++ b/docs/平台页面站点表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9330"/>
+    <workbookView windowWidth="21600" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="228">
   <si>
     <t>区域</t>
   </si>
@@ -661,37 +661,58 @@
     <t>TA440309036V10A</t>
   </si>
   <si>
+    <t>1910505699802656770</t>
+  </si>
+  <si>
+    <t>佛山禅城张槎金沙新城二楼机房无线1</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>1857313312905711617</t>
+  </si>
+  <si>
+    <t>1903020414961561602</t>
+  </si>
+  <si>
+    <t>艾默生空调</t>
+  </si>
+  <si>
+    <t>MA440604031V10A</t>
+  </si>
+  <si>
+    <t>TP48600</t>
+  </si>
+  <si>
     <t>海悟</t>
   </si>
   <si>
-    <t>空调</t>
+    <t>松下</t>
+  </si>
+  <si>
+    <t>科龙</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>美的</t>
+  </si>
+  <si>
+    <t>志高</t>
+  </si>
+  <si>
+    <t>格力</t>
+  </si>
+  <si>
+    <t>大金</t>
+  </si>
+  <si>
+    <t>美的精密</t>
   </si>
   <si>
     <t>海信</t>
-  </si>
-  <si>
-    <t>美的</t>
-  </si>
-  <si>
-    <t>科龙</t>
-  </si>
-  <si>
-    <t>志高</t>
-  </si>
-  <si>
-    <t>格力</t>
-  </si>
-  <si>
-    <t>松下</t>
-  </si>
-  <si>
-    <t>TCL</t>
-  </si>
-  <si>
-    <t>大金</t>
-  </si>
-  <si>
-    <t>美的精密</t>
   </si>
 </sst>
 </file>
@@ -731,9 +752,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1346,7 +1367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,28 +1398,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1459,6 +1469,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1713,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1770,7 +1787,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
@@ -1805,7 +1822,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
@@ -1837,7 +1854,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -1872,7 +1889,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -1904,7 +1921,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -1942,7 +1959,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1960,7 +1977,6 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7"/>
       <c r="H7" t="s">
         <v>50</v>
       </c>
@@ -1978,7 +1994,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -1996,7 +2012,6 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="G8"/>
       <c r="H8" t="s">
         <v>56</v>
       </c>
@@ -2014,7 +2029,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -2029,8 +2044,6 @@
       <c r="E9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
       <c r="H9" t="s">
         <v>61</v>
       </c>
@@ -2045,7 +2058,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
@@ -2083,7 +2096,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -2101,7 +2114,6 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="G11"/>
       <c r="H11" t="s">
         <v>72</v>
       </c>
@@ -2119,7 +2131,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -2157,7 +2169,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2195,7 +2207,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2210,8 +2222,6 @@
       <c r="E14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -2226,7 +2236,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -2264,7 +2274,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -2282,7 +2292,6 @@
       <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16"/>
       <c r="H16" t="s">
         <v>98</v>
       </c>
@@ -2300,7 +2309,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
@@ -2318,7 +2327,6 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="G17"/>
       <c r="H17" t="s">
         <v>103</v>
       </c>
@@ -2333,7 +2341,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
@@ -2371,7 +2379,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
@@ -2406,7 +2414,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
@@ -2444,7 +2452,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
@@ -2482,7 +2490,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
@@ -2520,7 +2528,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
@@ -2552,7 +2560,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
@@ -2567,7 +2575,6 @@
       <c r="E24" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F24"/>
       <c r="G24" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2592,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
@@ -2620,7 +2627,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B26" t="s">
@@ -2629,10 +2636,10 @@
       <c r="C26" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F26" t="s">
@@ -2658,7 +2665,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B27" t="s">
@@ -2667,14 +2674,12 @@
       <c r="C27" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F27"/>
-      <c r="G27"/>
       <c r="H27" t="s">
         <v>155</v>
       </c>
@@ -2692,7 +2697,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B28" t="s">
@@ -2710,7 +2715,6 @@
       <c r="F28" t="s">
         <v>44</v>
       </c>
-      <c r="G28"/>
       <c r="H28" t="s">
         <v>161</v>
       </c>
@@ -2728,7 +2732,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B29" t="s">
@@ -2766,7 +2770,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B30" t="s">
@@ -2784,7 +2788,6 @@
       <c r="F30" t="s">
         <v>82</v>
       </c>
-      <c r="G30"/>
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -2802,7 +2805,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B31" t="s">
@@ -2820,7 +2823,6 @@
       <c r="F31" t="s">
         <v>31</v>
       </c>
-      <c r="G31"/>
       <c r="H31" t="s">
         <v>176</v>
       </c>
@@ -2835,7 +2837,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B32" t="s">
@@ -2873,7 +2875,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B33" t="s">
@@ -2911,7 +2913,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B34" t="s">
@@ -2926,8 +2928,6 @@
       <c r="E34" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F34"/>
-      <c r="G34"/>
       <c r="H34" t="s">
         <v>191</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B35" t="s">
@@ -2963,7 +2963,6 @@
       <c r="F35" t="s">
         <v>196</v>
       </c>
-      <c r="G35"/>
       <c r="H35" t="s">
         <v>197</v>
       </c>
@@ -2978,7 +2977,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B36" t="s">
@@ -3016,7 +3015,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B37" t="s">
@@ -3034,7 +3033,6 @@
       <c r="F37" t="s">
         <v>196</v>
       </c>
-      <c r="G37"/>
       <c r="H37" t="s">
         <v>209</v>
       </c>
@@ -3061,1168 +3059,98 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K37"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="20.1858407079646" customWidth="1"/>
+    <col min="1" max="1" width="21.787610619469" customWidth="1"/>
+    <col min="2" max="2" width="36.1150442477876" customWidth="1"/>
     <col min="3" max="3" width="8.3716814159292" customWidth="1"/>
+    <col min="4" max="4" width="21.787610619469" customWidth="1"/>
+    <col min="5" max="5" width="17.3362831858407" customWidth="1"/>
     <col min="6" max="6" width="19.3893805309735" customWidth="1"/>
+    <col min="9" max="10" width="10.2477876106195" customWidth="1"/>
+    <col min="11" max="12" width="18.9646017699115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" s="7">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:11">
+      <c r="A2" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="1">
-        <v>800</v>
-      </c>
-      <c r="H2" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J37" si="0">C2&amp;H2</f>
-        <v>海悟空调</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K37" si="1">D2&amp;I2</f>
-        <v>海悟空调</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="10">
-        <v>700</v>
-      </c>
-      <c r="H3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="0"/>
-        <v>海信空调</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="10">
-        <v>700</v>
-      </c>
-      <c r="H4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1200</v>
-      </c>
-      <c r="H5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>科龙空调</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="10">
-        <v>900</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-      <c r="H6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" t="s">
-        <v>211</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>海信空调</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="J2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2">
         <v>600</v>
       </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1">
-        <v>800</v>
-      </c>
-      <c r="F8" s="11">
-        <v>600</v>
-      </c>
-      <c r="H8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>志高空调</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1">
-        <v>800</v>
-      </c>
-      <c r="F9" s="11">
-        <v>400</v>
-      </c>
-      <c r="H9" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>格力空调</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="1">
-        <v>800</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>松下空调</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>科龙空调</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F11">
-        <v>600</v>
-      </c>
-      <c r="H11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="10">
-        <v>700</v>
-      </c>
-      <c r="F12">
-        <v>600</v>
-      </c>
-      <c r="H12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="10">
-        <v>500</v>
-      </c>
-      <c r="F13">
-        <v>400</v>
-      </c>
-      <c r="H13" t="s">
-        <v>211</v>
-      </c>
-      <c r="I13" t="s">
-        <v>211</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>松下空调</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>科龙空调</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="10">
-        <v>600</v>
-      </c>
-      <c r="H14" t="s">
-        <v>211</v>
-      </c>
-      <c r="I14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15">
-        <v>500</v>
-      </c>
-      <c r="F15">
-        <v>200</v>
-      </c>
-      <c r="H15" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16">
-        <v>700</v>
-      </c>
-      <c r="F16">
-        <v>400</v>
-      </c>
-      <c r="H16" t="s">
-        <v>211</v>
-      </c>
-      <c r="I16" t="s">
-        <v>211</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>科龙空调</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>科龙空调</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17">
-        <v>700</v>
-      </c>
-      <c r="H17" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18">
-        <v>600</v>
-      </c>
-      <c r="F18">
-        <v>400</v>
-      </c>
-      <c r="H18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>科龙空调</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19">
-        <v>700</v>
-      </c>
-      <c r="F19">
-        <v>200</v>
-      </c>
-      <c r="H19" t="s">
-        <v>211</v>
-      </c>
-      <c r="I19" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>科龙空调</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="12">
-        <v>900</v>
-      </c>
-      <c r="F20">
-        <v>400</v>
-      </c>
-      <c r="H20" t="s">
-        <v>211</v>
-      </c>
-      <c r="I20" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>TCL空调</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21">
-        <v>700</v>
-      </c>
-      <c r="F21">
-        <v>200</v>
-      </c>
-      <c r="H21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12">
-        <v>700</v>
-      </c>
-      <c r="F22">
-        <v>400</v>
-      </c>
-      <c r="H22" t="s">
-        <v>211</v>
-      </c>
-      <c r="I22" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>科龙空调</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="13">
-        <v>900</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="H23" t="s">
-        <v>211</v>
-      </c>
-      <c r="I23" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>海悟空调</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24">
-        <v>1200</v>
-      </c>
-      <c r="H24" t="s">
-        <v>211</v>
-      </c>
-      <c r="I24" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>海信空调</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25">
-        <v>800</v>
-      </c>
-      <c r="H25" t="s">
-        <v>211</v>
-      </c>
-      <c r="I25" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v>格力空调</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26">
-        <v>700</v>
-      </c>
-      <c r="F26">
-        <v>400</v>
-      </c>
-      <c r="H26" t="s">
-        <v>211</v>
-      </c>
-      <c r="I26" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27">
-        <v>800</v>
-      </c>
-      <c r="F27">
-        <v>200</v>
-      </c>
-      <c r="H27" t="s">
-        <v>211</v>
-      </c>
-      <c r="I27" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>大金空调</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28">
-        <v>600</v>
-      </c>
-      <c r="F28">
-        <v>400</v>
-      </c>
-      <c r="H28" t="s">
-        <v>211</v>
-      </c>
-      <c r="I28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>海信空调</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="12">
-        <v>900</v>
-      </c>
-      <c r="F29" s="11">
-        <v>400</v>
-      </c>
-      <c r="H29" t="s">
-        <v>211</v>
-      </c>
-      <c r="I29" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v>大金空调</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="12">
-        <v>900</v>
-      </c>
-      <c r="F30" s="11">
-        <v>400</v>
-      </c>
-      <c r="H30" t="s">
-        <v>211</v>
-      </c>
-      <c r="I30" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>松下空调</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" s="12">
-        <v>700</v>
-      </c>
-      <c r="F31" s="11">
-        <v>400</v>
-      </c>
-      <c r="H31" t="s">
-        <v>211</v>
-      </c>
-      <c r="I31" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="1"/>
-        <v>美的精密空调</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32">
-        <v>700</v>
-      </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="H32" t="s">
-        <v>211</v>
-      </c>
-      <c r="I32" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="12">
-        <v>900</v>
-      </c>
-      <c r="F33">
-        <v>400</v>
-      </c>
-      <c r="H33" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="1"/>
-        <v>海悟空调</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34">
-        <v>700</v>
-      </c>
-      <c r="F34">
-        <v>600</v>
-      </c>
-      <c r="H34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="1"/>
-        <v>美的空调</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="12">
-        <v>700</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="H35" t="s">
-        <v>211</v>
-      </c>
-      <c r="I35" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>格力空调</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="13">
-        <v>700</v>
-      </c>
-      <c r="F36" s="11">
-        <v>200</v>
-      </c>
-      <c r="H36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I36" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>美的空调</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="1"/>
-        <v>海悟空调</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37">
-        <v>500</v>
-      </c>
-      <c r="F37">
-        <v>600</v>
-      </c>
-      <c r="H37" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" t="s">
-        <v>211</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>格力空调</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="1"/>
-        <v>空调</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F37">
-    <sortCondition ref="A3"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4255,10 +3183,10 @@
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2">
         <v>800</v>
@@ -4280,10 +3208,10 @@
         <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2">
         <v>800</v>
@@ -4307,10 +3235,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2">
         <v>900</v>
@@ -4334,7 +3262,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
@@ -4359,10 +3287,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F5" s="2">
         <v>900</v>
@@ -4386,7 +3314,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
@@ -4411,7 +3339,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2">
@@ -4436,7 +3364,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2">
@@ -4461,7 +3389,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2">
@@ -4484,10 +3412,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F10" s="2">
         <v>900</v>
@@ -4511,10 +3439,10 @@
         <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F11" s="2">
         <v>700</v>
@@ -4538,7 +3466,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2">
@@ -4561,10 +3489,10 @@
         <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F13" s="2">
         <v>700</v>
@@ -4588,7 +3516,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2">
@@ -4611,10 +3539,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F15" s="2">
         <v>700</v>
@@ -4638,10 +3566,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F16" s="2">
         <v>700</v>
@@ -4665,7 +3593,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2">
@@ -4690,7 +3618,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2">
@@ -4715,7 +3643,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2">
@@ -4740,7 +3668,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -4765,7 +3693,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2">
@@ -4790,10 +3718,10 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F22" s="2">
         <v>700</v>
@@ -4817,10 +3745,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F23" s="2">
         <v>800</v>
@@ -4841,10 +3769,10 @@
         <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F24" s="2">
         <v>900</v>
@@ -4868,10 +3796,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F25" s="2">
         <v>700</v>
@@ -4892,10 +3820,10 @@
         <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F26" s="2">
         <v>500</v>
@@ -4919,7 +3847,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="6">
@@ -4941,7 +3869,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2">
@@ -4966,7 +3894,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2">
@@ -4988,7 +3916,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2">
@@ -5013,10 +3941,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F31" s="2">
         <v>700</v>
@@ -5040,10 +3968,10 @@
         <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F32" s="6">
         <v>700</v>
@@ -5064,7 +3992,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2">
@@ -5086,10 +4014,10 @@
         <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F34" s="2">
         <v>600</v>
@@ -5113,7 +4041,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2">
@@ -5138,7 +4066,7 @@
         <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2">
